--- a/data/trans_orig/P68-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P68-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>110464</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93648</v>
+        <v>90946</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130926</v>
+        <v>127736</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2966599877578347</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2514993393246711</v>
+        <v>0.244242969516726</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3516123613670453</v>
+        <v>0.3430446883050551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -765,19 +765,19 @@
         <v>37568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27319</v>
+        <v>27285</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47748</v>
+        <v>47460</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2516793693472336</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1830199761650292</v>
+        <v>0.182791017349746</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3198795211760305</v>
+        <v>0.3179520587740106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -786,19 +786,19 @@
         <v>148032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127625</v>
+        <v>130370</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168536</v>
+        <v>170662</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2837883618314573</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2446660318608286</v>
+        <v>0.2499291651952818</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3230962597615501</v>
+        <v>0.3271721476059559</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>261896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>241434</v>
+        <v>244624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278712</v>
+        <v>281414</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7033400122421652</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6483876386329548</v>
+        <v>0.6569553116949449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7485006606753289</v>
+        <v>0.7557570304832739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -836,19 +836,19 @@
         <v>111701</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101521</v>
+        <v>101809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121950</v>
+        <v>121984</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7483206306527664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6801204788239694</v>
+        <v>0.6820479412259896</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8169800238349708</v>
+        <v>0.8172089826502541</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>356</v>
@@ -857,19 +857,19 @@
         <v>373597</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>353093</v>
+        <v>350967</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>394004</v>
+        <v>391259</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7162116381685427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6769037402384499</v>
+        <v>0.6728278523940443</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7553339681391714</v>
+        <v>0.7500708348047184</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>286945</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>257848</v>
+        <v>257276</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>317247</v>
+        <v>315545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.257969662340298</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2318111669250696</v>
+        <v>0.2312966753746847</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2852120940893388</v>
+        <v>0.2836823358378058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -982,19 +982,19 @@
         <v>118571</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100254</v>
+        <v>99957</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>138249</v>
+        <v>139198</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2054179622256515</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1736859415967928</v>
+        <v>0.1731712786548995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2395096418691086</v>
+        <v>0.241153855697073</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>391</v>
@@ -1003,19 +1003,19 @@
         <v>405515</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>367820</v>
+        <v>368494</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>442546</v>
+        <v>438693</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2400157946829279</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2177051344330361</v>
+        <v>0.2181035728055456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2619338093315018</v>
+        <v>0.2596529937853054</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>825374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>795072</v>
+        <v>796774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>854471</v>
+        <v>855043</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7420303376597021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7147879059106612</v>
+        <v>0.7163176641621942</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7681888330749302</v>
+        <v>0.7687033246253152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>436</v>
@@ -1053,19 +1053,19 @@
         <v>458645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>438967</v>
+        <v>438018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>476962</v>
+        <v>477259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7945820377743485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7604903581308911</v>
+        <v>0.7588461443029269</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.826314058403207</v>
+        <v>0.8268287213451004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1227</v>
@@ -1074,19 +1074,19 @@
         <v>1284020</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1246989</v>
+        <v>1250842</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1321715</v>
+        <v>1321041</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7599842053170721</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.738066190668498</v>
+        <v>0.7403470062146946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7822948655669637</v>
+        <v>0.7818964271944544</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>74075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59033</v>
+        <v>59535</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90723</v>
+        <v>92588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1834820396368121</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1462232138241202</v>
+        <v>0.1474673550206637</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.224719763418466</v>
+        <v>0.2293397231732122</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1199,19 +1199,19 @@
         <v>63983</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50315</v>
+        <v>50756</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78862</v>
+        <v>79291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2196025702670274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1726921110660469</v>
+        <v>0.1742041152987518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2706694346000487</v>
+        <v>0.2721443420666905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -1220,19 +1220,19 @@
         <v>138058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118730</v>
+        <v>118857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158407</v>
+        <v>159671</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1986228451051241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1708157223642853</v>
+        <v>0.1709987753812325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2278994332179951</v>
+        <v>0.2297177181384294</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>329642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312994</v>
+        <v>311129</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>344684</v>
+        <v>344182</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8165179603631879</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7752802365815342</v>
+        <v>0.7706602768267879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8537767861758798</v>
+        <v>0.8525326449793363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -1270,19 +1270,19 @@
         <v>227375</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212496</v>
+        <v>212067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>241043</v>
+        <v>240602</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7803974297329725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7293305653999513</v>
+        <v>0.7278556579333096</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8273078889339532</v>
+        <v>0.8257958847012484</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>536</v>
@@ -1291,19 +1291,19 @@
         <v>557017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>536668</v>
+        <v>535404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576345</v>
+        <v>576218</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8013771548948759</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.772100566782005</v>
+        <v>0.7702822818615707</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8291842776357148</v>
+        <v>0.8290012246187677</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>471484</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>433770</v>
+        <v>434063</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>507872</v>
+        <v>511482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2496741540369401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2297025264149159</v>
+        <v>0.2298580422979298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2689433153474647</v>
+        <v>0.2708550109995698</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>215</v>
@@ -1416,19 +1416,19 @@
         <v>220121</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2162626557167993</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>664</v>
@@ -1437,19 +1437,19 @@
         <v>691605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>650691</v>
+        <v>647331</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>738787</v>
+        <v>740730</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2379725512147826</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2238944680687245</v>
+        <v>0.2227381927725881</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2542072825524936</v>
+        <v>0.2548757393765992</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1416913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1380525</v>
+        <v>1376915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1454627</v>
+        <v>1454334</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7503258459630598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7310566846525353</v>
+        <v>0.72914498900043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.770297473585084</v>
+        <v>0.7701419577020702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>759</v>
@@ -1487,19 +1487,19 @@
         <v>797722</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>769088</v>
+        <v>769985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>822838</v>
+        <v>823138</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7837373442832007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7556054206674362</v>
+        <v>0.7564874084602501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8084137285897424</v>
+        <v>0.8087086507293546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2119</v>
@@ -1508,19 +1508,19 @@
         <v>2214635</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2167453</v>
+        <v>2165510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2255549</v>
+        <v>2258909</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7620274487852173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7457927174475063</v>
+        <v>0.7451242606234008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7761055319312753</v>
+        <v>0.7772618072274119</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>58767</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46479</v>
+        <v>47042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71923</v>
+        <v>73159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3210992563491971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2539599834729682</v>
+        <v>0.2570359824571246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3929841942722801</v>
+        <v>0.3997350701925949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -1872,19 +1872,19 @@
         <v>37934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28545</v>
+        <v>28197</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50074</v>
+        <v>49613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2766129913213265</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2081489276053792</v>
+        <v>0.2056074529071087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3651344524757876</v>
+        <v>0.361770481602344</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -1893,19 +1893,19 @@
         <v>96702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81704</v>
+        <v>81844</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115599</v>
+        <v>116106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3020435801729227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2551988238142063</v>
+        <v>0.2556350100679468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3610684312395238</v>
+        <v>0.3626534671444872</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>124251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111095</v>
+        <v>109859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136539</v>
+        <v>135976</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6789007436508029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.60701580572772</v>
+        <v>0.6002649298074048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7460400165270317</v>
+        <v>0.7429640175428751</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -1943,19 +1943,19 @@
         <v>99205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>87065</v>
+        <v>87526</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108594</v>
+        <v>108942</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7233870086786734</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.634865547524213</v>
+        <v>0.638229518397656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7918510723946212</v>
+        <v>0.7943925470928912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>208</v>
@@ -1964,19 +1964,19 @@
         <v>223456</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>204559</v>
+        <v>204052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>238454</v>
+        <v>238314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6979564198270773</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6389315687604764</v>
+        <v>0.6373465328555128</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7448011761857939</v>
+        <v>0.7443649899320531</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>225637</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>197192</v>
+        <v>199639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253916</v>
+        <v>253396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2472710255555233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.216098603880949</v>
+        <v>0.2187805937686036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2782611488914059</v>
+        <v>0.2776922439081187</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -2089,19 +2089,19 @@
         <v>131572</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>112780</v>
+        <v>111525</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154009</v>
+        <v>154839</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2296706382515402</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1968682214293244</v>
+        <v>0.1946767645348063</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2688368843199187</v>
+        <v>0.2702848814363468</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>336</v>
@@ -2110,19 +2110,19 @@
         <v>357209</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>323831</v>
+        <v>323744</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>392693</v>
+        <v>389286</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2404830125987254</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2180121479743841</v>
+        <v>0.2179537799754057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2643717056087164</v>
+        <v>0.262077976023718</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>686871</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>658592</v>
+        <v>659112</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>715316</v>
+        <v>712869</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7527289744444767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.721738851108594</v>
+        <v>0.7223077560918814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7839013961190507</v>
+        <v>0.7812194062313964</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>415</v>
@@ -2160,19 +2160,19 @@
         <v>441301</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418864</v>
+        <v>418034</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>460093</v>
+        <v>461348</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7703293617484599</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7311631156800815</v>
+        <v>0.7297151185636535</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8031317785706757</v>
+        <v>0.8053232354651938</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1063</v>
@@ -2181,19 +2181,19 @@
         <v>1128172</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1092688</v>
+        <v>1096095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1161550</v>
+        <v>1161637</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7595169874012746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7356282943912836</v>
+        <v>0.737922023976282</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7819878520256159</v>
+        <v>0.7820462200245942</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>46089</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33812</v>
+        <v>34104</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61425</v>
+        <v>62089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1457324569614096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1069146110668977</v>
+        <v>0.107837707506994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.194225900871272</v>
+        <v>0.1963251356453757</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -2306,19 +2306,19 @@
         <v>46321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33675</v>
+        <v>33328</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61315</v>
+        <v>59695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1971981415316403</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1433618647885482</v>
+        <v>0.1418826067391849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2610301713094917</v>
+        <v>0.2541315560407254</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -2327,19 +2327,19 @@
         <v>92410</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75986</v>
+        <v>74099</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112702</v>
+        <v>111735</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1676666622209469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1378670551643039</v>
+        <v>0.1344429135729687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2044843466495251</v>
+        <v>0.2027297743009588</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>270168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>254832</v>
+        <v>254168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>282445</v>
+        <v>282153</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8542675430385904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8057740991287281</v>
+        <v>0.8036748643546242</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8930853889331023</v>
+        <v>0.892162292493006</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>168</v>
@@ -2377,19 +2377,19 @@
         <v>188576</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>173582</v>
+        <v>175202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>201222</v>
+        <v>201569</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8028018584683596</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7389698286905083</v>
+        <v>0.7458684439592748</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8566381352114519</v>
+        <v>0.858117393260815</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>411</v>
@@ -2398,19 +2398,19 @@
         <v>458744</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>438452</v>
+        <v>439419</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>475168</v>
+        <v>477055</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8323333377790532</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.795515653350475</v>
+        <v>0.7972702256990413</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8621329448356961</v>
+        <v>0.8655570864270313</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>330493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>300090</v>
+        <v>295479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>367168</v>
+        <v>359110</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.234095918957175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2125606587221411</v>
+        <v>0.2092948354945453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2600740848679911</v>
+        <v>0.2543663769486983</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>198</v>
@@ -2523,19 +2523,19 @@
         <v>215828</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191912</v>
+        <v>190192</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>244002</v>
+        <v>242895</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2284112149631472</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2031007552715877</v>
+        <v>0.2012812132174313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.258227780554905</v>
+        <v>0.2570564338963032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>515</v>
@@ -2544,19 +2544,19 @@
         <v>546321</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>505884</v>
+        <v>507240</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>594863</v>
+        <v>588027</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2318166531878958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2146584812761506</v>
+        <v>0.2152335934369809</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.252414453341604</v>
+        <v>0.2495135286917654</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1081290</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1044615</v>
+        <v>1052673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1111693</v>
+        <v>1116304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.765904081042825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7399259151320089</v>
+        <v>0.7456336230513017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7874393412778588</v>
+        <v>0.7907051645054547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>674</v>
@@ -2594,19 +2594,19 @@
         <v>729081</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>700907</v>
+        <v>702014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>752997</v>
+        <v>754717</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7715887850368528</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.741772219445095</v>
+        <v>0.7429435661036967</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7968992447284123</v>
+        <v>0.7987187867825686</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1682</v>
@@ -2615,19 +2615,19 @@
         <v>1810372</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1761830</v>
+        <v>1768666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1850809</v>
+        <v>1849453</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7681833468121042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7475855466583958</v>
+        <v>0.7504864713082345</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7853415187238494</v>
+        <v>0.7847664065630191</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>55581</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43749</v>
+        <v>43380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68304</v>
+        <v>67555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4023274785840823</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3166823012185238</v>
+        <v>0.3140099188983427</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4944239547428727</v>
+        <v>0.4890077864138241</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2979,19 +2979,19 @@
         <v>18024</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11587</v>
+        <v>11800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25477</v>
+        <v>26088</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.264740904262989</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1701840800235652</v>
+        <v>0.1733116777865262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3741989030500378</v>
+        <v>0.3831864247007164</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -3000,19 +3000,19 @@
         <v>73605</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61010</v>
+        <v>59467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89170</v>
+        <v>88308</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3569060788848217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.295833400606976</v>
+        <v>0.2883550091899701</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4323818008746882</v>
+        <v>0.4281994008718177</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>82567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69844</v>
+        <v>70593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94399</v>
+        <v>94768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5976725214159176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5055760452571273</v>
+        <v>0.510992213586176</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6833176987814762</v>
+        <v>0.6859900811016575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -3050,19 +3050,19 @@
         <v>50059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42606</v>
+        <v>41995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56496</v>
+        <v>56283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7352590957370111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6258010969499622</v>
+        <v>0.6168135752992835</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8298159199764349</v>
+        <v>0.8266883222134738</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>128</v>
@@ -3071,19 +3071,19 @@
         <v>132625</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117060</v>
+        <v>117922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145220</v>
+        <v>146763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6430939211151783</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5676181991253116</v>
+        <v>0.5718005991281822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.704166599393024</v>
+        <v>0.7116449908100299</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>228436</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202383</v>
+        <v>202575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>257188</v>
+        <v>256311</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2487436695965553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2203739886760609</v>
+        <v>0.2205831052923898</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2800510667992622</v>
+        <v>0.279096432290622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -3196,19 +3196,19 @@
         <v>124565</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104766</v>
+        <v>105885</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145995</v>
+        <v>146973</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.19177240399661</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1612903507190274</v>
+        <v>0.1630137149129978</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2247645276712038</v>
+        <v>0.2262705284706403</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>335</v>
@@ -3217,19 +3217,19 @@
         <v>353002</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>324893</v>
+        <v>318607</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>391963</v>
+        <v>390454</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2251418441908857</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2072145839644575</v>
+        <v>0.2032048770159779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2499911769329681</v>
+        <v>0.2490288684716963</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>689925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>661173</v>
+        <v>662050</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>715978</v>
+        <v>715786</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7512563304034446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7199489332007376</v>
+        <v>0.7209035677093776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.779626011323939</v>
+        <v>0.7794168947076099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>513</v>
@@ -3267,19 +3267,19 @@
         <v>524981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>503551</v>
+        <v>502573</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>544780</v>
+        <v>543661</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.80822759600339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7752354723287961</v>
+        <v>0.7737294715293598</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8387096492809725</v>
+        <v>0.8369862850870022</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1159</v>
@@ -3288,19 +3288,19 @@
         <v>1214906</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1175945</v>
+        <v>1177454</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1243015</v>
+        <v>1249301</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7748581558091143</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7500088230670322</v>
+        <v>0.7509711315283034</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7927854160355424</v>
+        <v>0.7967951229840218</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>62594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48315</v>
+        <v>49269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77581</v>
+        <v>80667</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1817248140187498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.140270315038543</v>
+        <v>0.1430381616746304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2252360058326653</v>
+        <v>0.2341939916640692</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -3413,19 +3413,19 @@
         <v>73708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60076</v>
+        <v>59022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90365</v>
+        <v>89000</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2413673158052396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1967272754614852</v>
+        <v>0.193276749589211</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2959111579298606</v>
+        <v>0.2914428527309213</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -3434,19 +3434,19 @@
         <v>136302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114448</v>
+        <v>115773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160206</v>
+        <v>157279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2097532682249634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1761213814160024</v>
+        <v>0.1781605660909479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2465382955672533</v>
+        <v>0.2420332057435821</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>281850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>266863</v>
+        <v>263777</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296129</v>
+        <v>295175</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8182751859812503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7747639941673347</v>
+        <v>0.7658060083359313</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8597296849614572</v>
+        <v>0.8569618383253697</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -3484,19 +3484,19 @@
         <v>231670</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>215013</v>
+        <v>216378</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245302</v>
+        <v>246356</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7586326841947604</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7040888420701393</v>
+        <v>0.708557147269079</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8032727245385146</v>
+        <v>0.8067232504107893</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -3505,19 +3505,19 @@
         <v>513520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>489616</v>
+        <v>492543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>535374</v>
+        <v>534049</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7902467317750367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7534617044327471</v>
+        <v>0.7579667942564183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8238786185839977</v>
+        <v>0.8218394339090522</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>346611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>314811</v>
+        <v>313055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>380923</v>
+        <v>380217</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.247411001034084</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2247123049380682</v>
+        <v>0.223458948658387</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.271902441193217</v>
+        <v>0.2713991720019668</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>207</v>
@@ -3630,19 +3630,19 @@
         <v>216298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191241</v>
+        <v>189487</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>244628</v>
+        <v>246208</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2114331582127648</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1869404140657906</v>
+        <v>0.1852255248490383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2391262207844016</v>
+        <v>0.2406710612749835</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>526</v>
@@ -3651,19 +3651,19 @@
         <v>562909</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>521250</v>
+        <v>516011</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>605747</v>
+        <v>601688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2322269260403444</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2150406327914103</v>
+        <v>0.2128792821020477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2498997973434398</v>
+        <v>0.2482251298799561</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1054342</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1020030</v>
+        <v>1020736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1086142</v>
+        <v>1087898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.752588998965916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7280975588067833</v>
+        <v>0.7286008279980332</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7752876950619322</v>
+        <v>0.7765410513416131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>792</v>
@@ -3701,19 +3701,19 @@
         <v>806709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>778379</v>
+        <v>776799</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>831766</v>
+        <v>833520</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7885668417872351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7608737792155986</v>
+        <v>0.7593289387250164</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8130595859342094</v>
+        <v>0.8147744751509617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1776</v>
@@ -3722,19 +3722,19 @@
         <v>1861051</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1818213</v>
+        <v>1822272</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1902710</v>
+        <v>1907949</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7677730739596557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7501002026565602</v>
+        <v>0.7517748701200441</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7849593672085896</v>
+        <v>0.7871207178979536</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>35518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26094</v>
+        <v>25238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47564</v>
+        <v>46603</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2204239449122376</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1619391595640003</v>
+        <v>0.1566270935960919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2951791940725838</v>
+        <v>0.2892150147463447</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -4086,19 +4086,19 @@
         <v>23346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17343</v>
+        <v>16838</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30481</v>
+        <v>31242</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2757893890141173</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2048843770205903</v>
+        <v>0.1989091202945115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3600868862618347</v>
+        <v>0.369070191348864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -4107,19 +4107,19 @@
         <v>58864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46527</v>
+        <v>46750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72695</v>
+        <v>72883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2394921591077498</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1893002298596187</v>
+        <v>0.1902080235397232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2957674417237804</v>
+        <v>0.2965287994015897</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>125618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113572</v>
+        <v>114533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135042</v>
+        <v>135898</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7795760550877624</v>
+        <v>0.7795760550877623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7048208059274162</v>
+        <v>0.7107849852536553</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8380608404359998</v>
+        <v>0.8433729064039081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -4157,19 +4157,19 @@
         <v>61304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54169</v>
+        <v>53408</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67307</v>
+        <v>67812</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7242106109858827</v>
+        <v>0.7242106109858825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6399131137381652</v>
+        <v>0.6309298086511363</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7951156229794096</v>
+        <v>0.8010908797054885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -4178,19 +4178,19 @@
         <v>186922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>173091</v>
+        <v>172903</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199259</v>
+        <v>199036</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7605078408922501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7042325582762196</v>
+        <v>0.7034712005984104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8106997701403813</v>
+        <v>0.809791976460277</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>267640</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>238622</v>
+        <v>235781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>300438</v>
+        <v>302928</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2156804950752221</v>
+        <v>0.215680495075222</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1922959408023081</v>
+        <v>0.1900067151522917</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2421117259970745</v>
+        <v>0.2441177202428316</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>304</v>
@@ -4303,19 +4303,19 @@
         <v>219456</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>199744</v>
+        <v>200474</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242922</v>
+        <v>246100</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2401554709978424</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2185837716903433</v>
+        <v>0.2193830247479699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2658342228731565</v>
+        <v>0.2693120847451282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>540</v>
@@ -4324,19 +4324,19 @@
         <v>487096</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>451341</v>
+        <v>448860</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>525175</v>
+        <v>526833</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.226060260008003</v>
+        <v>0.2260602600080031</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2094663003451351</v>
+        <v>0.2083152352608406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2437324938578407</v>
+        <v>0.2445022664821427</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>973268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>940470</v>
+        <v>937980</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1002286</v>
+        <v>1005127</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.784319504924778</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7578882740029256</v>
+        <v>0.7558822797571683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8077040591976919</v>
+        <v>0.8099932848477083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>915</v>
@@ -4374,19 +4374,19 @@
         <v>694353</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>670887</v>
+        <v>667709</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>714065</v>
+        <v>713335</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7598445290021575</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7341657771268431</v>
+        <v>0.7306879152548718</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7814162283096568</v>
+        <v>0.7806169752520302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1747</v>
@@ -4395,19 +4395,19 @@
         <v>1667621</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1629542</v>
+        <v>1627884</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1703376</v>
+        <v>1705857</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7739397399919967</v>
+        <v>0.7739397399919969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7562675061421593</v>
+        <v>0.7554977335178569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7905336996548649</v>
+        <v>0.7916847647391592</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>76890</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58755</v>
+        <v>60941</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96523</v>
+        <v>100303</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1613687372820118</v>
+        <v>0.1613687372820117</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1233091493194171</v>
+        <v>0.1278963148336136</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2025709206404021</v>
+        <v>0.2105037846201304</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -4520,19 +4520,19 @@
         <v>98979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83488</v>
+        <v>83613</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115658</v>
+        <v>115009</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2081051615671839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1755354010843231</v>
+        <v>0.1757980034945525</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2431747280409514</v>
+        <v>0.2418099035193313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>192</v>
@@ -4541,19 +4541,19 @@
         <v>175869</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150827</v>
+        <v>151482</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203296</v>
+        <v>201601</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1847155867795972</v>
+        <v>0.1847155867795971</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1584142759372588</v>
+        <v>0.1591019442574096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2135220712866262</v>
+        <v>0.2117418263927731</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>399599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>379966</v>
+        <v>376186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>417734</v>
+        <v>415548</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8386312627179884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7974290793595981</v>
+        <v>0.7894962153798696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8766908506805831</v>
+        <v>0.8721036851663866</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -4591,19 +4591,19 @@
         <v>376639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>359960</v>
+        <v>360609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>392130</v>
+        <v>392005</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7918948384328162</v>
+        <v>0.7918948384328159</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7568252719590487</v>
+        <v>0.7581900964806688</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8244645989156774</v>
+        <v>0.8242019965054476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>867</v>
@@ -4612,19 +4612,19 @@
         <v>776238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>748811</v>
+        <v>750506</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>801280</v>
+        <v>800625</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8152844132204028</v>
+        <v>0.8152844132204027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7864779287133739</v>
+        <v>0.7882581736072269</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8415857240627411</v>
+        <v>0.8408980557425906</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>380048</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>339645</v>
+        <v>340810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>422453</v>
+        <v>420622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2023112235544412</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1808035118613847</v>
+        <v>0.1814233608598805</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2248847552075684</v>
+        <v>0.2239101224649161</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>467</v>
@@ -4737,19 +4737,19 @@
         <v>341780</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>314145</v>
+        <v>314934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>371079</v>
+        <v>369125</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2318605894462382</v>
+        <v>0.2318605894462381</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2131132527629873</v>
+        <v>0.2136481439835942</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2517362371289528</v>
+        <v>0.2504108309143782</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>799</v>
@@ -4758,19 +4758,19 @@
         <v>721828</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>671930</v>
+        <v>671181</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>767653</v>
+        <v>768007</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2153035078159916</v>
+        <v>0.2153035078159917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2004200148610387</v>
+        <v>0.2001966756282892</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2289718724623149</v>
+        <v>0.2290774432665022</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1498484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1456079</v>
+        <v>1457910</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1538887</v>
+        <v>1537722</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7976887764455586</v>
+        <v>0.7976887764455587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7751152447924315</v>
+        <v>0.776089877535084</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8191964881386156</v>
+        <v>0.8185766391401196</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1508</v>
@@ -4808,19 +4808,19 @@
         <v>1132297</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1102998</v>
+        <v>1104952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1159932</v>
+        <v>1159143</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7681394105537618</v>
+        <v>0.7681394105537617</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7482637628710473</v>
+        <v>0.749589169085622</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7868867472370128</v>
+        <v>0.7863518560164058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2800</v>
@@ -4829,19 +4829,19 @@
         <v>2630781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2584956</v>
+        <v>2584602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2680679</v>
+        <v>2681428</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7846964921840083</v>
+        <v>0.7846964921840084</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.771028127537685</v>
+        <v>0.7709225567334976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7995799851389608</v>
+        <v>0.7998033243717102</v>
       </c>
     </row>
     <row r="15">
